--- a/medicine/Pharmacie/Direction_de_la_pharmacie_et_du_médicament/Direction_de_la_pharmacie_et_du_médicament.xlsx
+++ b/medicine/Pharmacie/Direction_de_la_pharmacie_et_du_médicament/Direction_de_la_pharmacie_et_du_médicament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_de_la_pharmacie_et_du_m%C3%A9dicament</t>
+          <t>Direction_de_la_pharmacie_et_du_médicament</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Direction de la pharmacie et du médicament (arabe : وحدة الصيدلة والدواء) ou DPM est une unité technico-administrative tunisienne rattachée au ministère de la Santé.
 Elle gère tous les aspects administratifs liés à la pharmacie, aux médicaments et activités apparentées. Elle coordonne les activités du système national d'assurance qualité des médicaments et procède au contrôle technique à l'importation des médicaments, des accessoires médicaux et des produits cosmétiques à vente limitée aux pharmacies.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_de_la_pharmacie_et_du_m%C3%A9dicament</t>
+          <t>Direction_de_la_pharmacie_et_du_médicament</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la Tunisie   Portail de la pharmacie                    </t>
